--- a/COX ms data for Dryad.xlsx
+++ b/COX ms data for Dryad.xlsx
@@ -21,9 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="143">
   <si>
     <t>colony</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>FS10</t>
@@ -1013,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1032,1236 +1041,3036 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.5605199999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="F2" s="3">
+        <v>62.3166236</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.57725</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <v>62.825717500000003</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.43431</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="F4" s="3">
+        <v>58.476053299999997</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.50705</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60.689531500000001</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.4460900000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="F6" s="3">
+        <v>58.834518699999997</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.5439799999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>61.813311400000003</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.4899100000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="F8" s="3">
+        <v>60.167961300000002</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.4658</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="F9" s="3">
+        <v>59.434294000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.53129</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="F10" s="3">
+        <v>61.427154700000003</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.5492900000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="F11" s="3">
+        <v>61.9748947</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.44784</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>58.887771200000003</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.48445</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>60.001813499999997</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.3470200000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="F14" s="3">
+        <v>55.819818599999998</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.4452400000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="F15" s="3">
+        <v>58.808653200000002</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.51895</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>61.051648499999999</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.5627</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="F17" s="3">
+        <v>62.382961000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.4713799999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="F18" s="3">
+        <v>59.604093399999996</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.5052399999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>60.634453200000003</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.6676800000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="F20" s="3">
+        <v>65.5775024</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.46905</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F21" s="3">
+        <v>59.533191500000001</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.64209</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="F22" s="3">
+        <v>64.798798700000006</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.4349700000000001</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="F23" s="3">
+        <v>58.496137099999999</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.5829</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="F24" s="3">
+        <v>62.997647000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.38601</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="F25" s="3">
+        <v>57.006284299999997</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.3933</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="F26" s="3">
+        <v>57.228119</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.44746</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F27" s="3">
+        <v>58.876207800000003</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.47004</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>59.5633172</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.59751</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.27</v>
+      </c>
+      <c r="F29" s="3">
+        <v>63.442229300000001</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.51816</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F30" s="3">
+        <v>61.027608800000003</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.4962</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="F31" s="3">
+        <v>60.359366000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.4833700000000001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F32" s="3">
+        <v>59.968949100000003</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.5023</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="F33" s="3">
+        <v>60.544989000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.47794</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="F34" s="3">
+        <v>59.803714200000002</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.3705400000000001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>56.535532199999999</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.4719</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="F36" s="3">
+        <v>59.619917000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.51109</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="F37" s="3">
+        <v>60.812468699999997</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.4706399999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="F38" s="3">
+        <v>59.581575200000003</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.4567600000000001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="F39" s="3">
+        <v>59.1592068</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.5139199999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>60.898585599999997</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.45366</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>59.064873800000001</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.49359</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="F42" s="3">
+        <v>60.279943699999997</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.3511299999999999</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="F43" s="3">
+        <v>55.944885900000003</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.4816800000000001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="F44" s="3">
+        <v>59.917522400000003</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.4926900000000001</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="F45" s="3">
+        <v>60.2525567</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.5155099999999999</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F46" s="3">
+        <v>60.946969299999999</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.4815700000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="F47" s="3">
+        <v>59.914175100000001</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="F48" s="3">
+        <v>61.387900000000002</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.44452</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F49" s="3">
+        <v>58.786743600000001</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.5109699999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="F50" s="3">
+        <v>60.808817099999999</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.4840899999999999</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F51" s="3">
+        <v>59.990858699999997</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.6171800000000001</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="F52" s="3">
+        <v>64.040787399999999</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.58226</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="F53" s="3">
+        <v>62.978171799999998</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.5671900000000001</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="F54" s="3">
+        <v>62.519591699999999</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.45957</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="F55" s="3">
+        <v>59.244715100000001</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.5042599999999999</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2.91</v>
+      </c>
+      <c r="F56" s="3">
+        <v>60.6046318</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.6147400000000001</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="F57" s="3">
+        <v>63.966538200000002</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.5001599999999999</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="F58" s="3">
+        <v>60.479868799999998</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.5765400000000001</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2.91</v>
+      </c>
+      <c r="F59" s="3">
+        <v>62.804112199999999</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="A60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.51403</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F60" s="3">
+        <v>60.901932899999998</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1.6278999999999999</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4.13</v>
+      </c>
+      <c r="F61" s="3">
+        <v>64.366996999999998</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="A62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1.65218</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="F62" s="3">
+        <v>65.105837399999999</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="A63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1.5372699999999999</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="F63" s="3">
+        <v>61.609126099999997</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="A64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1.5068600000000001</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="F64" s="3">
+        <v>60.683749800000001</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="A65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.62923</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3.32</v>
+      </c>
+      <c r="F65" s="3">
+        <v>64.407468899999998</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="A66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.55355</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2.83</v>
+      </c>
+      <c r="F66" s="3">
+        <v>62.104526499999999</v>
+      </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="A67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.48716</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="F67" s="3">
+        <v>60.0842788</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="A68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.54725</v>
+      </c>
+      <c r="E68" s="3">
+        <v>3.72</v>
+      </c>
+      <c r="F68" s="3">
+        <v>61.912817500000003</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="A69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1.4216899999999999</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F69" s="3">
+        <v>58.092026699999998</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="A70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1.6334299999999999</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="F70" s="3">
+        <v>64.535274900000005</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="A71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1.5262100000000001</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="F71" s="3">
+        <v>61.272570299999998</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="A72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1.56226</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="F72" s="3">
+        <v>62.369571800000003</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="A73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1.44095</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="F73" s="3">
+        <v>58.6781085</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1.5666899999999999</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="F74" s="3">
+        <v>62.504376700000002</v>
+      </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="A75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1.4923900000000001</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="F75" s="3">
+        <v>60.243427699999998</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="A76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1.6017999999999999</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="F76" s="3">
+        <v>63.572774000000003</v>
+      </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="A77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1.5036099999999999</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.37</v>
+      </c>
+      <c r="F77" s="3">
+        <v>60.584852300000001</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="A78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1.5392699999999999</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="F78" s="3">
+        <v>61.669986100000003</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="A79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1.4612499999999999</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2.29</v>
+      </c>
+      <c r="F79" s="3">
+        <v>59.295837499999998</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="A80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1.5957399999999999</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="F80" s="3">
+        <v>63.388368200000002</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="A81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1.44374</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="F81" s="3">
+        <v>58.763008200000002</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="A82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1.5643100000000001</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3.44</v>
+      </c>
+      <c r="F82" s="3">
+        <v>62.431953300000004</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="A83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1.52847</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="F83" s="3">
+        <v>61.341342099999999</v>
+      </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1.45458</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F84" s="3">
+        <v>59.092869399999998</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="A85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1.4420200000000001</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="F85" s="3">
+        <v>58.710668599999998</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="A86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1.4624699999999999</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F86" s="3">
+        <v>59.332962100000003</v>
+      </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="A87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1.4503699999999999</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="F87" s="3">
+        <v>58.964759100000002</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1.4869699999999999</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="F88" s="3">
+        <v>60.0784971</v>
+      </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="A89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1.57196</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="F89" s="3">
+        <v>62.664742799999999</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1.49621</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="F90" s="3">
+        <v>60.359670299999998</v>
+      </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="A91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.6302099999999999</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3.87</v>
+      </c>
+      <c r="F91" s="3">
+        <v>64.437290300000001</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="A92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1.6032200000000001</v>
+      </c>
+      <c r="E92" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="F92" s="3">
+        <v>63.615984599999997</v>
+      </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="A93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1.4885699999999999</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.39</v>
+      </c>
+      <c r="F93" s="3">
+        <v>60.127185099999998</v>
+      </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="A94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.50363</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="F94" s="3">
+        <v>60.585460900000001</v>
+      </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="A95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1.66994</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="F95" s="3">
+        <v>65.646274199999993</v>
+      </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="A96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1.5689299999999999</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="F96" s="3">
+        <v>62.572539900000002</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="A97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1.56392</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="F97" s="3">
+        <v>62.4200856</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="A98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1.48125</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F98" s="3">
+        <v>59.9044375</v>
+      </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="A99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1.53335</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="F99" s="3">
+        <v>61.4898405</v>
+      </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="A100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1.54121</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="F100" s="3">
+        <v>61.729020300000002</v>
+      </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="A101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1.4874099999999999</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="F101" s="3">
+        <v>60.091886299999999</v>
+      </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="A102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1.52302</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>61.175498599999997</v>
+      </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="A103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1.6856800000000001</v>
+      </c>
+      <c r="E103" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="F103" s="3">
+        <v>66.125242400000005</v>
+      </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="A104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1.6031200000000001</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="F104" s="3">
+        <v>63.612941599999999</v>
+      </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="A105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1.5168900000000001</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="F105" s="3">
+        <v>60.988962700000002</v>
+      </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+      <c r="A106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1.44675</v>
+      </c>
+      <c r="E106" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F106" s="3">
+        <v>58.854602499999999</v>
+      </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="A107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1.4077</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F107" s="3">
+        <v>57.666311</v>
+      </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1.6071</v>
+      </c>
+      <c r="E108" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="F108" s="3">
+        <v>63.734053000000003</v>
+      </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="A109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1.5669900000000001</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3.52</v>
+      </c>
+      <c r="F109" s="3">
+        <v>62.513505700000003</v>
+      </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1.48082</v>
+      </c>
+      <c r="E110" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F110" s="3">
+        <v>59.891352599999998</v>
+      </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="A111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1.4356</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="F111" s="3">
+        <v>58.515307999999997</v>
+      </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1.5785800000000001</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="F112" s="3">
+        <v>62.866189400000003</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="A113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1.49037</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="F113" s="3">
+        <v>60.1819591</v>
+      </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+      <c r="A114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.5981399999999999</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="F114" s="3">
+        <v>63.4614002</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="A115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1.4467300000000001</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2.78</v>
+      </c>
+      <c r="F115" s="3">
+        <v>58.853993899999999</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+      <c r="A116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1.58134</v>
+      </c>
+      <c r="E116" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="F116" s="3">
+        <v>62.950176200000001</v>
+      </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+      <c r="A117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1.4007799999999999</v>
+      </c>
+      <c r="E117" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F117" s="3">
+        <v>57.455735400000002</v>
+      </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+      <c r="A118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1.5055799999999999</v>
+      </c>
+      <c r="E118" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="F118" s="3">
+        <v>60.644799399999997</v>
+      </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+      <c r="A119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1.37419</v>
+      </c>
+      <c r="E119" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="F119" s="3">
+        <v>56.646601699999998</v>
+      </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="A120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1.4225399999999999</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2.89</v>
+      </c>
+      <c r="F120" s="3">
+        <v>58.1178922</v>
+      </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="A121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1.5614399999999999</v>
+      </c>
+      <c r="E121" s="3">
+        <v>3.24</v>
+      </c>
+      <c r="F121" s="3">
+        <v>62.344619199999997</v>
+      </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+      <c r="A122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1.4801</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F122" s="3">
+        <v>59.869442999999997</v>
+      </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="A123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1.43737</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F123" s="3">
+        <v>58.569169100000003</v>
+      </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
+      <c r="A124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1.66906</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F124" s="3">
+        <v>65.619495799999996</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="A125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1.5175799999999999</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="F125" s="3">
+        <v>61.0099594</v>
+      </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="A126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1.46285</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="F126" s="3">
+        <v>59.344525500000003</v>
+      </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
+      <c r="A127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1.4854000000000001</v>
+      </c>
+      <c r="E127" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="F127" s="3">
+        <v>60.030721999999997</v>
+      </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+      <c r="A128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1.54718</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F128" s="3">
+        <v>61.9106874</v>
+      </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+      <c r="A129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1.4718199999999999</v>
+      </c>
+      <c r="E129" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F129" s="3">
+        <v>59.617482600000002</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
+      <c r="A130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1.5522499999999999</v>
+      </c>
+      <c r="E130" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="F130" s="3">
+        <v>62.064967500000002</v>
+      </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1.4952300000000001</v>
+      </c>
+      <c r="E131" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="F131" s="3">
+        <v>60.329848900000002</v>
+      </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1.5828899999999999</v>
+      </c>
+      <c r="E132" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="F132" s="3">
+        <v>62.997342699999997</v>
+      </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+      <c r="A133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1.6031</v>
+      </c>
+      <c r="E133" s="3">
+        <v>3.47</v>
+      </c>
+      <c r="F133" s="3">
+        <v>63.612333</v>
+      </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
+      <c r="A134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1.4904500000000001</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F134" s="3">
+        <v>60.184393499999999</v>
+      </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="A135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1.6773199999999999</v>
+      </c>
+      <c r="E135" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="F135" s="3">
+        <v>65.870847600000005</v>
+      </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1.51274</v>
+      </c>
+      <c r="E136" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>60.862678199999998</v>
+      </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="A137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1.4100600000000001</v>
+      </c>
+      <c r="E137" s="3">
+        <v>2.89</v>
+      </c>
+      <c r="F137" s="3">
+        <v>57.738125799999999</v>
+      </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1.47085</v>
+      </c>
+      <c r="E138" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="F138" s="3">
+        <v>59.587965500000003</v>
+      </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="A139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1.45678</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="F139" s="3">
+        <v>59.159815399999999</v>
+      </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1.71109</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="F140" s="3">
+        <v>66.898468699999995</v>
+      </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="A141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1.50576</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="F141" s="3">
+        <v>60.6502768</v>
+      </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+      <c r="A142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1.60816</v>
+      </c>
+      <c r="E142" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="F142" s="3">
+        <v>63.766308799999997</v>
+      </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="A143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1.4822599999999999</v>
+      </c>
+      <c r="E143" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F143" s="3">
+        <v>59.935171799999999</v>
+      </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
+      <c r="A144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1.5554300000000001</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="F144" s="3">
+        <v>62.161734899999999</v>
+      </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="A145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1.5503899999999999</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F145" s="3">
+        <v>62.008367700000001</v>
+      </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="A146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1.5401499999999999</v>
+      </c>
+      <c r="E146" s="3">
+        <v>3.52</v>
+      </c>
+      <c r="F146" s="3">
+        <v>61.6967645</v>
+      </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="A147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1.4319599999999999</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F147" s="3">
+        <v>58.404542800000002</v>
+      </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+      <c r="A148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1.4149099999999999</v>
+      </c>
+      <c r="E148" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F148" s="3">
+        <v>57.885711299999997</v>
+      </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
+      <c r="A149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="3">
+        <v>1.5489900000000001</v>
+      </c>
+      <c r="E149" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="F149" s="3">
+        <v>61.965765699999999</v>
+      </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="A150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="3">
+        <v>1.4320900000000001</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="F150" s="3">
+        <v>58.408498700000003</v>
+      </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="A151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1.4606699999999999</v>
+      </c>
+      <c r="E151" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F151" s="3">
+        <v>59.278188100000001</v>
+      </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D152" s="3">
         <v>1.2</v>
@@ -2275,13 +4084,13 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D153" s="3">
         <v>1.55</v>
@@ -2295,13 +4104,13 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D154" s="3">
         <v>1.65</v>
@@ -2315,13 +4124,13 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D155" s="3">
         <v>1.7</v>
@@ -2335,13 +4144,13 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D156" s="3">
         <v>1.25</v>
@@ -2355,13 +4164,13 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D157" s="3">
         <v>1.25</v>
@@ -2375,13 +4184,13 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D158" s="3">
         <v>1.45</v>
@@ -2395,13 +4204,13 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D159" s="3">
         <v>1.47</v>
@@ -2415,13 +4224,13 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D160" s="3">
         <v>1.47</v>
@@ -2433,15 +4242,15 @@
         <v>43.958399999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D161" s="3">
         <v>1.575</v>
@@ -2453,15 +4262,15 @@
         <v>46.554000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D162" s="3">
         <v>1.6</v>
@@ -2473,15 +4282,15 @@
         <v>47.171999999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D163" s="3">
         <v>1.45</v>
@@ -2493,15 +4302,15 @@
         <v>43.463999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D164" s="3">
         <v>1.5</v>
@@ -2513,15 +4322,15 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D165" s="3">
         <v>1.425</v>
@@ -2533,15 +4342,15 @@
         <v>42.845999999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D166" s="3">
         <v>1.425</v>
@@ -2553,364 +4362,364 @@
         <v>42.845999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D167" s="3">
         <v>1.45</v>
       </c>
-      <c r="E167" s="3">
+      <c r="G167" s="3">
+        <v>61.499999999995197</v>
+      </c>
+      <c r="H167" s="3">
         <v>2.3804500000000002</v>
       </c>
-      <c r="F167" s="3">
-        <v>61.499999999995197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D168" s="3">
         <v>1.425</v>
       </c>
-      <c r="E168" s="3">
+      <c r="G168" s="3">
+        <v>63.500000000004803</v>
+      </c>
+      <c r="H168" s="3">
         <v>2.275925</v>
       </c>
-      <c r="F168" s="3">
-        <v>63.500000000004803</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D169" s="3">
         <v>1.2250000000000001</v>
       </c>
-      <c r="E169" s="3">
+      <c r="G169" s="3">
+        <v>61.999999999997598</v>
+      </c>
+      <c r="H169" s="3">
         <v>1.4397249999999999</v>
       </c>
-      <c r="F169" s="3">
-        <v>61.999999999997598</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D170" s="3">
         <v>1.3</v>
       </c>
-      <c r="E170" s="3">
+      <c r="G170" s="3">
+        <v>60.000000000002302</v>
+      </c>
+      <c r="H170" s="3">
         <v>1.7533000000000001</v>
       </c>
-      <c r="F170" s="3">
-        <v>60.000000000002302</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D171" s="3">
         <v>1.425</v>
       </c>
-      <c r="E171" s="3">
+      <c r="G171" s="3">
+        <v>47.499999999999403</v>
+      </c>
+      <c r="H171" s="3">
         <v>2.275925</v>
       </c>
-      <c r="F171" s="3">
-        <v>47.499999999999403</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D172" s="3">
         <v>1.45</v>
       </c>
-      <c r="E172" s="3">
+      <c r="G172" s="3">
+        <v>53.499999999999702</v>
+      </c>
+      <c r="H172" s="3">
         <v>2.3804500000000002</v>
       </c>
-      <c r="F172" s="3">
-        <v>53.499999999999702</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D173" s="3">
         <v>1.4</v>
       </c>
-      <c r="E173" s="3">
+      <c r="G173" s="3">
+        <v>51.4999999999972</v>
+      </c>
+      <c r="H173" s="3">
         <v>2.1714000000000002</v>
       </c>
-      <c r="F173" s="3">
-        <v>51.4999999999972</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D174" s="3">
         <v>1.4</v>
       </c>
-      <c r="E174" s="3">
+      <c r="G174" s="3">
+        <v>54.000000000001997</v>
+      </c>
+      <c r="H174" s="3">
         <v>2.1714000000000002</v>
       </c>
-      <c r="F174" s="3">
-        <v>54.000000000001997</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D175" s="3">
         <v>1.625</v>
       </c>
-      <c r="E175" s="3">
+      <c r="G175" s="3">
+        <v>69.000000000002601</v>
+      </c>
+      <c r="H175" s="3">
         <v>3.1121249999999998</v>
       </c>
-      <c r="F175" s="3">
-        <v>69.000000000002601</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D176" s="3">
         <v>1.6</v>
       </c>
-      <c r="E176" s="3">
+      <c r="G176" s="3">
+        <v>63.499999999997698</v>
+      </c>
+      <c r="H176" s="3">
         <v>3.0076000000000001</v>
       </c>
-      <c r="F176" s="3">
-        <v>63.499999999997698</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D177" s="3">
         <v>1.45</v>
       </c>
-      <c r="E177" s="3">
+      <c r="G177" s="3">
+        <v>42.999999999999297</v>
+      </c>
+      <c r="H177" s="3">
         <v>2.3804500000000002</v>
       </c>
-      <c r="F177" s="3">
-        <v>42.999999999999297</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D178" s="3">
         <v>1.3</v>
       </c>
-      <c r="E178" s="3">
+      <c r="G178" s="3">
+        <v>47.499999999999403</v>
+      </c>
+      <c r="H178" s="3">
         <v>1.7533000000000001</v>
       </c>
-      <c r="F178" s="3">
-        <v>47.499999999999403</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D179" s="3">
         <v>1.5</v>
       </c>
-      <c r="E179" s="3">
+      <c r="G179" s="3">
+        <v>71.500000000000298</v>
+      </c>
+      <c r="H179" s="3">
         <v>2.5895000000000001</v>
       </c>
-      <c r="F179" s="3">
-        <v>71.500000000000298</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D180" s="3">
         <v>1.35</v>
       </c>
-      <c r="E180" s="3">
+      <c r="G180" s="3">
+        <v>53.999999999994898</v>
+      </c>
+      <c r="H180" s="3">
         <v>1.96235</v>
       </c>
-      <c r="F180" s="3">
-        <v>53.999999999994898</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D181" s="3">
         <v>1.4750000000000001</v>
       </c>
-      <c r="E181" s="3">
+      <c r="G181" s="3">
+        <v>65.699999999999704</v>
+      </c>
+      <c r="H181" s="3">
         <v>2.4849749999999999</v>
       </c>
-      <c r="F181" s="3">
-        <v>65.699999999999704</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D182" s="3">
         <v>1.2250000000000001</v>
       </c>
-      <c r="E182" s="3">
+      <c r="G182" s="3">
+        <v>51.500000000004299</v>
+      </c>
+      <c r="H182" s="3">
         <v>1.4397249999999999</v>
       </c>
-      <c r="F182" s="3">
-        <v>51.500000000004299</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D183" s="3">
         <v>1.35</v>
       </c>
-      <c r="E183" s="3">
+      <c r="G183" s="3">
+        <v>61.199999999999498</v>
+      </c>
+      <c r="H183" s="3">
         <v>1.96235</v>
       </c>
-      <c r="F183" s="3">
-        <v>61.199999999999498</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D184" s="3">
         <v>1.375</v>
       </c>
-      <c r="E184" s="3">
+      <c r="G184" s="3">
+        <v>46.500000000001798</v>
+      </c>
+      <c r="H184" s="3">
         <v>2.066875</v>
-      </c>
-      <c r="F184" s="3">
-        <v>46.500000000001798</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -3123,13 +4932,13 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D345" s="3">
         <v>1.4750000000000001</v>
@@ -3143,13 +4952,13 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D346" s="3">
         <v>1.4375</v>
@@ -3163,13 +4972,13 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D347" s="3">
         <v>1.5625</v>
@@ -3183,13 +4992,13 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D348" s="3">
         <v>1.4375</v>
@@ -3203,13 +5012,13 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D349" s="3">
         <v>1.5</v>
@@ -3223,13 +5032,13 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D350" s="3">
         <v>1.4375</v>
@@ -3243,13 +5052,13 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D351" s="3">
         <v>1.53125</v>
@@ -3263,13 +5072,13 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D352" s="3">
         <v>1.375</v>
@@ -3283,13 +5092,13 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D353" s="3">
         <v>1.46875</v>
@@ -3303,13 +5112,13 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D354" s="3">
         <v>1.5</v>
@@ -3323,13 +5132,13 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D355" s="3">
         <v>1.375</v>
@@ -3343,13 +5152,13 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D356" s="3">
         <v>1.375</v>
@@ -3363,13 +5172,13 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D357" s="3">
         <v>1.4375</v>
@@ -3383,13 +5192,13 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D358" s="3">
         <v>1.1499999999999999</v>
@@ -3403,13 +5212,13 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D359" s="3">
         <v>1.21</v>
@@ -3423,13 +5232,13 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D360" s="3">
         <v>1.23</v>
@@ -3443,13 +5252,13 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D361" s="3">
         <v>1.7250000000000001</v>
@@ -3463,13 +5272,13 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D362" s="3">
         <v>1.675</v>
@@ -3483,13 +5292,13 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D363" s="3">
         <v>1.6</v>
@@ -3503,13 +5312,13 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D364" s="3">
         <v>1.65</v>
@@ -3523,13 +5332,13 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D365" s="3">
         <v>1.175</v>
@@ -3543,13 +5352,13 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D366" s="3">
         <v>1.6</v>
@@ -3563,13 +5372,13 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D367" s="3">
         <v>1.7</v>
@@ -3583,13 +5392,13 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D368" s="3">
         <v>1.51</v>
@@ -3603,13 +5412,13 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D369" s="3">
         <v>1.54</v>
@@ -3623,13 +5432,13 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D370" s="3">
         <v>1.49</v>
@@ -3643,13 +5452,13 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D371" s="3">
         <v>1.25</v>
@@ -3663,13 +5472,13 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D372" s="3">
         <v>1.55</v>
@@ -3683,13 +5492,13 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D373" s="3">
         <v>1.7</v>
@@ -3703,13 +5512,13 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D374" s="3">
         <v>1.6</v>
@@ -3723,13 +5532,13 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D375" s="3">
         <v>1.4</v>
@@ -3743,13 +5552,13 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D376" s="3">
         <v>1.625</v>
@@ -3763,13 +5572,13 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D377" s="3">
         <v>1.65</v>
@@ -3783,13 +5592,13 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D378" s="3">
         <v>1.41</v>
@@ -3803,13 +5612,13 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D379" s="3">
         <v>1.38</v>
@@ -3823,13 +5632,13 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D380" s="3">
         <v>1.38</v>
@@ -3843,13 +5652,13 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D381" s="3">
         <v>1.2</v>
@@ -3863,13 +5672,13 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D382" s="3">
         <v>1.28</v>
@@ -3883,13 +5692,13 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D383" s="3">
         <v>1.18</v>
@@ -3903,13 +5712,13 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D384" s="3">
         <v>1.41</v>
@@ -3923,13 +5732,13 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D385" s="3">
         <v>1.375</v>
@@ -3943,13 +5752,13 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D386" s="3">
         <v>1.35</v>
@@ -3963,13 +5772,13 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D387" s="3">
         <v>1.41</v>
@@ -3983,13 +5792,13 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D388" s="3">
         <v>1.56</v>
@@ -3997,13 +5806,13 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D389" s="3">
         <v>1.67</v>
@@ -4011,13 +5820,13 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D390" s="3">
         <v>1.51</v>
@@ -4025,13 +5834,13 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D391" s="3">
         <v>1.54</v>
@@ -4039,13 +5848,13 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D392" s="3">
         <v>1.41</v>
@@ -4053,13 +5862,13 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D393" s="3">
         <v>1.51</v>
@@ -4067,13 +5876,13 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D394" s="3">
         <v>1.64</v>
@@ -4081,13 +5890,13 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D395" s="3">
         <v>1.2</v>
@@ -4095,13 +5904,13 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D396" s="3">
         <v>1.62</v>
@@ -4109,13 +5918,13 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D397" s="3">
         <v>1.57</v>
@@ -4123,13 +5932,13 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D398" s="3">
         <v>1.64</v>
@@ -4137,13 +5946,13 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D399" s="3">
         <v>1.54</v>
@@ -4151,13 +5960,13 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D400" s="3">
         <v>1.59</v>
@@ -4165,13 +5974,13 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D401" s="3">
         <v>1.56</v>
@@ -4185,13 +5994,13 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D402" s="3">
         <v>1.67</v>
@@ -4205,13 +6014,13 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D403" s="3">
         <v>1.51</v>
@@ -4225,13 +6034,13 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D404" s="3">
         <v>1.54</v>
@@ -4245,13 +6054,13 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D405" s="3">
         <v>1.41</v>
@@ -4265,13 +6074,13 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D406" s="3">
         <v>1.51</v>
@@ -4285,13 +6094,13 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D407" s="3">
         <v>1.64</v>
@@ -4305,13 +6114,13 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D408" s="3">
         <v>1.2</v>
@@ -4325,13 +6134,13 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D409" s="3">
         <v>1.62</v>
@@ -4345,13 +6154,13 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D410" s="3">
         <v>1.57</v>
@@ -4365,13 +6174,13 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D411" s="3">
         <v>1.54</v>
@@ -4385,13 +6194,13 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D412" s="3">
         <v>1.59</v>
@@ -4405,13 +6214,13 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D413" s="3">
         <v>1.41</v>
@@ -4425,13 +6234,13 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D414" s="3">
         <v>1.36</v>
@@ -4445,13 +6254,13 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D415" s="3">
         <v>1.44</v>
@@ -4465,13 +6274,13 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D416" s="3">
         <v>1.33</v>
@@ -4485,13 +6294,13 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D417" s="3">
         <v>1.33</v>
@@ -4505,13 +6314,13 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D418" s="3">
         <v>1.36</v>
@@ -4525,13 +6334,13 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D419" s="3">
         <v>1.38</v>
@@ -4545,13 +6354,13 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D420" s="3">
         <v>1.33</v>
@@ -4565,13 +6374,13 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D421" s="3">
         <v>1.38</v>
@@ -4585,13 +6394,13 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D422" s="3">
         <v>1.21</v>
@@ -4605,13 +6414,13 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D423" s="3">
         <v>1.23</v>
@@ -4625,13 +6434,13 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D424" s="3">
         <v>1.33</v>
@@ -4645,13 +6454,13 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D425" s="3">
         <v>1.36</v>
@@ -4665,13 +6474,13 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D426" s="3">
         <v>1.26</v>
@@ -4685,13 +6494,13 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D427" s="3">
         <v>1.23</v>
@@ -4705,13 +6514,13 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D428" s="3">
         <v>1.1299999999999999</v>
@@ -4725,13 +6534,13 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D429" s="3">
         <v>1.28</v>
@@ -4745,13 +6554,13 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D430" s="3">
         <v>1.1000000000000001</v>
@@ -4765,13 +6574,13 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D431" s="3">
         <v>1.41</v>
@@ -4785,13 +6594,13 @@
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D432" s="3">
         <v>1.31</v>
@@ -4805,13 +6614,13 @@
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D433" s="3">
         <v>1.31</v>
@@ -4825,13 +6634,13 @@
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D434" s="3">
         <v>1.18</v>
@@ -4845,13 +6654,13 @@
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D435" s="3">
         <v>1.41</v>
@@ -4865,13 +6674,13 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D436" s="3">
         <v>1.28</v>
@@ -4885,13 +6694,13 @@
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D437" s="3">
         <v>1.05</v>
@@ -4924,81 +6733,81 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>6.5940866999999997E-3</v>
@@ -5054,16 +6863,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>7.2593095999999996E-3</v>
@@ -5119,16 +6928,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>7.7831111000000001E-3</v>
@@ -5184,16 +6993,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>7.2684522999999996E-3</v>
@@ -5249,16 +7058,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>7.2851796000000003E-3</v>
@@ -5314,16 +7123,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>5.2952370000000004E-3</v>
@@ -5379,16 +7188,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>4.4674913000000002E-3</v>
@@ -5444,16 +7253,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>4.1735345999999998E-3</v>
@@ -5509,16 +7318,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>5.0155106999999997E-3</v>
@@ -5574,16 +7383,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>5.9083631999999999E-3</v>
@@ -5639,16 +7448,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>6.1451919999999998E-3</v>
@@ -5704,16 +7513,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>3.1065514000000001E-3</v>
@@ -5769,16 +7578,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>2.3073845000000002E-3</v>
@@ -5834,16 +7643,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>2.8717704000000002E-3</v>
@@ -5899,16 +7708,16 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>5.6417676E-3</v>
@@ -5964,16 +7773,16 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>3.4795707000000002E-3</v>
@@ -6029,16 +7838,16 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>2.9987255E-3</v>
@@ -6094,16 +7903,16 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>3.2464337000000002E-3</v>
@@ -6159,16 +7968,16 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>2.6266776000000002E-3</v>
@@ -6224,16 +8033,16 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>2.0471228E-3</v>
@@ -6289,16 +8098,16 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>7.9422607000000003E-3</v>
@@ -6354,16 +8163,16 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>7.4010285000000002E-3</v>
@@ -6419,16 +8228,16 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>6.9179580000000001E-3</v>
@@ -6484,16 +8293,16 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>6.3204096999999997E-3</v>
@@ -6549,16 +8358,16 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>6.5848920000000002E-3</v>
@@ -6614,16 +8423,16 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>7.7790387999999997E-3</v>
@@ -6679,16 +8488,16 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>6.5430145000000004E-3</v>
@@ -6744,16 +8553,16 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>6.8238897000000003E-3</v>
@@ -6809,16 +8618,16 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>7.7518442E-3</v>
@@ -6874,16 +8683,16 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>6.8518169999999996E-3</v>
@@ -6939,16 +8748,16 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>7.8122314000000003E-3</v>
@@ -7004,16 +8813,16 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>7.5675072000000003E-3</v>
@@ -7069,16 +8878,16 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>6.2247672E-3</v>
@@ -7134,16 +8943,16 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>5.8568259000000003E-3</v>
@@ -7199,16 +9008,16 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>9.0250777999999997E-3</v>
@@ -7264,16 +9073,16 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>6.1945871000000001E-3</v>
@@ -7329,16 +9138,16 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E38">
         <v>4.5287417E-3</v>
@@ -7394,16 +9203,16 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <v>6.7795694999999998E-3</v>
@@ -7459,16 +9268,16 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>4.1411236999999998E-3</v>
@@ -7524,16 +9333,16 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <v>6.2780435999999998E-3</v>
@@ -7589,16 +9398,16 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>8.5224662999999999E-3</v>
@@ -7654,16 +9463,16 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E43">
         <v>3.9443834999999998E-3</v>
@@ -7719,16 +9528,16 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E44">
         <v>3.4153916E-3</v>
@@ -7784,16 +9593,16 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <v>4.5934273000000003E-3</v>
@@ -7849,16 +9658,16 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E46">
         <v>4.0075789000000002E-3</v>
@@ -7914,16 +9723,16 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <v>4.7912498000000003E-3</v>
@@ -7979,16 +9788,16 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E48">
         <v>3.9410757000000003E-3</v>
@@ -8066,96 +9875,96 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8">
         <v>0.82541262400000004</v>
@@ -8232,13 +10041,13 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8">
         <v>0.80780980599999996</v>
@@ -8315,13 +10124,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8">
         <v>0.62073905600000001</v>
@@ -8398,13 +10207,13 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8">
         <v>0.78161831999999998</v>
@@ -8481,13 +10290,13 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8">
         <v>0.748991878</v>
@@ -8564,13 +10373,13 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8">
         <v>0.74354725399999999</v>
@@ -8647,13 +10456,13 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8">
         <v>0.56992547800000004</v>
@@ -8730,13 +10539,13 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8">
         <v>0.45226676799999999</v>
@@ -8813,13 +10622,13 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8">
         <v>0.677218086</v>
@@ -8896,13 +10705,13 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8">
         <v>0.54596028500000005</v>
@@ -8979,13 +10788,13 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8">
         <v>0.72759497500000003</v>
@@ -9062,13 +10871,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8">
         <v>0.681760166</v>
@@ -9145,13 +10954,13 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8">
         <v>0.51490790200000003</v>
@@ -9228,13 +11037,13 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8">
         <v>0.71588470999999998</v>
@@ -9311,13 +11120,13 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" s="8">
         <v>0.66895818200000001</v>
@@ -9394,13 +11203,13 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8">
         <v>0.38871678799999998</v>
@@ -9477,13 +11286,13 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8">
         <v>0.75856646299999997</v>
@@ -9560,13 +11369,13 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19" s="8">
         <v>0.64286574699999999</v>
@@ -9643,13 +11452,13 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8">
         <v>0.58772128999999995</v>
@@ -9726,13 +11535,13 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21" s="10">
         <v>0.64688931599999999</v>
